--- a/Consumentenprijzen__prijsindex_1900  JB.xlsx
+++ b/Consumentenprijzen__prijsindex_1900  JB.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/324c1e38712a118f/Excel JB 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josbe\OneDrive\Excel JB 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:40009_{6BA11A1A-924B-4885-902D-D03FF92B3855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDA72CD-2AA2-4F84-9877-24A991838794}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75774595-4A83-425B-AF92-833866B5454B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumentenprijzen__prijsindex_" sheetId="1" r:id="rId1"/>
     <sheet name="cpi-analyze" sheetId="2" r:id="rId2"/>
+    <sheet name="deccenia" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Consumentenprijzen; prijsindex 1900 = 100</t>
   </si>
@@ -117,15 +117,58 @@
   <si>
     <t>Gemiddelde periode 1900-2021</t>
   </si>
+  <si>
+    <t>Kans</t>
+  </si>
+  <si>
+    <t>afgelopen</t>
+  </si>
+  <si>
+    <t>2012-2021</t>
+  </si>
+  <si>
+    <t>2002-2021</t>
+  </si>
+  <si>
+    <t>1992-2021</t>
+  </si>
+  <si>
+    <t>1982-2021</t>
+  </si>
+  <si>
+    <t>1972-2021</t>
+  </si>
+  <si>
+    <t>1962-2021</t>
+  </si>
+  <si>
+    <t>1952-2021</t>
+  </si>
+  <si>
+    <t>1942-2021</t>
+  </si>
+  <si>
+    <t>1932-2021</t>
+  </si>
+  <si>
+    <t>1922-201</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>Inflatie (CPI)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0\ &quot;jr.&quot;"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -465,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -595,6 +638,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -642,7 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -654,17 +734,27 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="4" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -4842,6 +4932,402 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Consumentenprijzen__prijsindex_!$K$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Consumentenprijzen__prijsindex_!$J$85:$J$105</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0% - 1%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1% - 2%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2% - 3%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3% - 4%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4% - 5%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5% - 6%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6% - 7%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7% - 8%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8% - 9%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9% - 10%</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10% - 11%</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11% - 12%</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12% - 13%</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13% - 14%</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14% - 15%</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15% - 16%</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16% - 17%</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17% - 18%</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18% - 19%</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19% - 20%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Consumentenprijzen__prijsindex_!$K$85:$K$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.19008264462809918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6115702479338817E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18181818181818188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9173553719008267E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3057851239669422E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3057851239669422E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7851239669421406E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1322314049586861E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6528925619834656E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3057851239669422E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6528925619834767E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2644628099173278E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4793388429752095E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2644628099173278E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2644628099173278E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4290-4512-8DB6-565D74A61EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="31"/>
+        <c:overlap val="-27"/>
+        <c:axId val="467463360"/>
+        <c:axId val="467461696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="467463360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467461696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467461696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467463360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -6664,7 +7150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -8503,7 +8989,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -11323,6 +11809,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12911,7 +13437,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13019,11 +13545,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13034,11 +13555,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13070,9 +13586,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14458,6 +14971,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14538,16 +15567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14567,6 +15596,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB727FD-9419-5E16-E989-903E5A3A6545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14991,10 +16056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+      <selection activeCell="K110" sqref="K110:K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -16457,7 +17522,7 @@
         <v>2.8853247863798615E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1975</v>
       </c>
@@ -16476,7 +17541,7 @@
         <v>2.7462704116684167E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1976</v>
       </c>
@@ -16495,7 +17560,7 @@
         <v>2.5900878541382566E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1977</v>
       </c>
@@ -16513,12 +17578,12 @@
         <f>-1+(B$127/B82)^(1/(-1+COUNT(B82:B$127)))</f>
         <v>2.4560111513173055E-2</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1978</v>
       </c>
@@ -16536,12 +17601,15 @@
         <f>-1+(B$127/B83)^(1/(-1+COUNT(B83:B$127)))</f>
         <v>2.3616949843670465E-2</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15" t="s">
+      <c r="H84" s="12"/>
+      <c r="I84" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1979</v>
       </c>
@@ -16563,12 +17631,20 @@
         <f>'cpi-analyze'!J135</f>
         <v>0</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="11">
         <f>'cpi-analyze'!L135</f>
         <v>0.19008264462809918</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" t="str">
+        <f>"&lt;0%"</f>
+        <v>&lt;0%</v>
+      </c>
+      <c r="K85" s="11">
+        <f>I85</f>
+        <v>0.19008264462809918</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1980</v>
       </c>
@@ -16590,12 +17666,20 @@
         <f>'cpi-analyze'!J136</f>
         <v>0.01</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="11">
         <f>'cpi-analyze'!L136</f>
         <v>0.256198347107438</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" t="str">
+        <f>TEXT(H85,"0%")&amp;" - "&amp;TEXT(H86,"0%")</f>
+        <v>0% - 1%</v>
+      </c>
+      <c r="K86" s="11">
+        <f>I86-I85</f>
+        <v>6.6115702479338817E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1981</v>
       </c>
@@ -16617,12 +17701,20 @@
         <f>'cpi-analyze'!J137</f>
         <v>0.02</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="11">
         <f>'cpi-analyze'!L137</f>
         <v>0.43801652892561982</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" t="str">
+        <f t="shared" ref="J87:J105" si="2">TEXT(H86,"0%")&amp;" - "&amp;TEXT(H87,"0%")</f>
+        <v>1% - 2%</v>
+      </c>
+      <c r="K87" s="11">
+        <f>I87-I86</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1982</v>
       </c>
@@ -16644,12 +17736,20 @@
         <f>'cpi-analyze'!J138</f>
         <v>0.03</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I88" s="11">
         <f>'cpi-analyze'!L138</f>
         <v>0.6198347107438017</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" t="str">
+        <f t="shared" si="2"/>
+        <v>2% - 3%</v>
+      </c>
+      <c r="K88" s="11">
+        <f>I88-I87</f>
+        <v>0.18181818181818188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1983</v>
       </c>
@@ -16671,12 +17771,20 @@
         <f>'cpi-analyze'!J139</f>
         <v>0.04</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="11">
         <f>'cpi-analyze'!L139</f>
         <v>0.71900826446280997</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" t="str">
+        <f t="shared" si="2"/>
+        <v>3% - 4%</v>
+      </c>
+      <c r="K89" s="11">
+        <f>I89-I88</f>
+        <v>9.9173553719008267E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1984</v>
       </c>
@@ -16698,12 +17806,20 @@
         <f>'cpi-analyze'!J140</f>
         <v>0.05</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I90" s="11">
         <f>'cpi-analyze'!L140</f>
         <v>0.75206611570247939</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" t="str">
+        <f t="shared" si="2"/>
+        <v>4% - 5%</v>
+      </c>
+      <c r="K90" s="11">
+        <f>I90-I89</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1985</v>
       </c>
@@ -16725,12 +17841,20 @@
         <f>'cpi-analyze'!J141</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="11">
         <f>'cpi-analyze'!L141</f>
         <v>0.78512396694214881</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" t="str">
+        <f t="shared" si="2"/>
+        <v>5% - 6%</v>
+      </c>
+      <c r="K91" s="11">
+        <f>I91-I90</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1986</v>
       </c>
@@ -16752,12 +17876,20 @@
         <f>'cpi-analyze'!J142</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="11">
         <f>'cpi-analyze'!L142</f>
         <v>0.84297520661157022</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" t="str">
+        <f t="shared" si="2"/>
+        <v>6% - 7%</v>
+      </c>
+      <c r="K92" s="11">
+        <f>I92-I91</f>
+        <v>5.7851239669421406E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1987</v>
       </c>
@@ -16779,12 +17911,20 @@
         <f>'cpi-analyze'!J143</f>
         <v>0.08</v>
       </c>
-      <c r="I93" s="12">
+      <c r="I93" s="11">
         <f>'cpi-analyze'!L143</f>
         <v>0.88429752066115708</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" t="str">
+        <f t="shared" si="2"/>
+        <v>7% - 8%</v>
+      </c>
+      <c r="K93" s="11">
+        <f>I93-I92</f>
+        <v>4.1322314049586861E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1988</v>
       </c>
@@ -16806,12 +17946,20 @@
         <f>'cpi-analyze'!J144</f>
         <v>0.09</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="11">
         <f>'cpi-analyze'!L144</f>
         <v>0.90082644628099173</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" t="str">
+        <f t="shared" si="2"/>
+        <v>8% - 9%</v>
+      </c>
+      <c r="K94" s="11">
+        <f>I94-I93</f>
+        <v>1.6528925619834656E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1989</v>
       </c>
@@ -16833,12 +17981,20 @@
         <f>'cpi-analyze'!J145</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="11">
         <f>'cpi-analyze'!L145</f>
         <v>0.93388429752066116</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" t="str">
+        <f t="shared" si="2"/>
+        <v>9% - 10%</v>
+      </c>
+      <c r="K95" s="11">
+        <f>I95-I94</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1990</v>
       </c>
@@ -16860,12 +18016,20 @@
         <f>'cpi-analyze'!J146</f>
         <v>0.10999999999999999</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="11">
         <f>'cpi-analyze'!L146</f>
         <v>0.95041322314049592</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" t="str">
+        <f t="shared" si="2"/>
+        <v>10% - 11%</v>
+      </c>
+      <c r="K96" s="11">
+        <f>I96-I95</f>
+        <v>1.6528925619834767E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1991</v>
       </c>
@@ -16887,12 +18051,20 @@
         <f>'cpi-analyze'!J147</f>
         <v>0.11999999999999998</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="11">
         <f>'cpi-analyze'!L147</f>
         <v>0.95867768595041325</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="str">
+        <f t="shared" si="2"/>
+        <v>11% - 12%</v>
+      </c>
+      <c r="K97" s="11">
+        <f>I97-I96</f>
+        <v>8.2644628099173278E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1992</v>
       </c>
@@ -16914,12 +18086,20 @@
         <f>'cpi-analyze'!J148</f>
         <v>0.12999999999999998</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="11">
         <f>'cpi-analyze'!L148</f>
         <v>0.95867768595041325</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" t="str">
+        <f t="shared" si="2"/>
+        <v>12% - 13%</v>
+      </c>
+      <c r="K98" s="11">
+        <f>I98-I97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1993</v>
       </c>
@@ -16941,12 +18121,20 @@
         <f>'cpi-analyze'!J149</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="11">
         <f>'cpi-analyze'!L149</f>
         <v>0.95867768595041325</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" t="str">
+        <f t="shared" si="2"/>
+        <v>13% - 14%</v>
+      </c>
+      <c r="K99" s="11">
+        <f>I99-I98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1994</v>
       </c>
@@ -16968,12 +18156,20 @@
         <f>'cpi-analyze'!J150</f>
         <v>0.15</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="11">
         <f>'cpi-analyze'!L150</f>
         <v>0.98347107438016534</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" t="str">
+        <f t="shared" si="2"/>
+        <v>14% - 15%</v>
+      </c>
+      <c r="K100" s="11">
+        <f>I100-I99</f>
+        <v>2.4793388429752095E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1995</v>
       </c>
@@ -16995,12 +18191,20 @@
         <f>'cpi-analyze'!J151</f>
         <v>0.16</v>
       </c>
-      <c r="I101" s="12">
+      <c r="I101" s="11">
         <f>'cpi-analyze'!L151</f>
         <v>0.99173553719008267</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" t="str">
+        <f t="shared" si="2"/>
+        <v>15% - 16%</v>
+      </c>
+      <c r="K101" s="11">
+        <f>I101-I100</f>
+        <v>8.2644628099173278E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1996</v>
       </c>
@@ -17022,12 +18226,20 @@
         <f>'cpi-analyze'!J152</f>
         <v>0.17</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="11">
         <f>'cpi-analyze'!L152</f>
         <v>0.99173553719008267</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" t="str">
+        <f t="shared" si="2"/>
+        <v>16% - 17%</v>
+      </c>
+      <c r="K102" s="11">
+        <f>I102-I101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1997</v>
       </c>
@@ -17049,12 +18261,20 @@
         <f>'cpi-analyze'!J153</f>
         <v>0.18000000000000002</v>
       </c>
-      <c r="I103" s="12">
+      <c r="I103" s="11">
         <f>'cpi-analyze'!L153</f>
         <v>0.99173553719008267</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" t="str">
+        <f t="shared" si="2"/>
+        <v>17% - 18%</v>
+      </c>
+      <c r="K103" s="11">
+        <f>I103-I102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1998</v>
       </c>
@@ -17076,12 +18296,20 @@
         <f>'cpi-analyze'!J154</f>
         <v>0.19000000000000003</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="11">
         <f>'cpi-analyze'!L154</f>
         <v>0.99173553719008267</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" t="str">
+        <f t="shared" si="2"/>
+        <v>18% - 19%</v>
+      </c>
+      <c r="K104" s="11">
+        <f>I104-I103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1999</v>
       </c>
@@ -17103,12 +18331,20 @@
         <f>'cpi-analyze'!J155</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="I105" s="12">
+      <c r="I105" s="11">
         <f>'cpi-analyze'!L155</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" t="str">
+        <f t="shared" si="2"/>
+        <v>19% - 20%</v>
+      </c>
+      <c r="K105" s="11">
+        <f>I105-I104</f>
+        <v>8.2644628099173278E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2000</v>
       </c>
@@ -17127,7 +18363,7 @@
         <v>1.9092258885288649E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2001</v>
       </c>
@@ -17146,7 +18382,7 @@
         <v>1.8814234360031046E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2002</v>
       </c>
@@ -17165,7 +18401,7 @@
         <v>1.7478631210905649E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2003</v>
       </c>
@@ -17184,7 +18420,7 @@
         <v>1.6639457383503142E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2004</v>
       </c>
@@ -17203,7 +18439,7 @@
         <v>1.6377702660351323E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2005</v>
       </c>
@@ -17222,7 +18458,7 @@
         <v>1.6645990313166603E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2006</v>
       </c>
@@ -17533,10 +18769,10 @@
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C129" s="13"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="4">
         <f>AVERAGE(D7:D127)</f>
         <v>2.9770894734602742E-2</v>
@@ -17546,10 +18782,10 @@
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="13"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="1">
         <f>-1+(B127/B6)^(1/(-1+COUNT(B6:B127)))</f>
         <v>2.8733788068449062E-2</v>
@@ -17573,8 +18809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624523F9-430D-4B0F-ACDE-8E652A5CD070}">
   <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView topLeftCell="E122" workbookViewId="0">
-      <selection activeCell="Q133" sqref="Q133:R155"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -22271,28 +23507,28 @@
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="11" t="s">
+      <c r="J130" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
       <c r="M130" s="9"/>
-      <c r="N130" s="11" t="s">
+      <c r="N130" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O130" s="11"/>
-      <c r="P130" s="11"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
       <c r="M131" s="9"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="11"/>
-      <c r="P131" s="11"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
@@ -22803,4 +24039,164 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04ABA12-C695-459E-9ACF-6F75E7B633DA}">
+  <dimension ref="A2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B4,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>1.6543165624358869E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B5,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>1.7478631210905649E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B6,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>2.0214997374515153E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B7,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>2.0649244368709851E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B8,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>3.0815079380374533E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B9,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>3.3715910453434583E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B10,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>3.1878617853558611E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B11,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>3.648761613396756E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B12,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>3.4501481147328317E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <f>INDEX('cpi-analyze'!$A$6:$E$127,MATCH(LEFT(B13,4)*1,'cpi-analyze'!$A$6:$A$127,0),5)</f>
+        <v>2.7957518775491685E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>